--- a/工作流/PRL_OISF_写字楼ISF设计.xlsx
+++ b/工作流/PRL_OISF_写字楼ISF设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\鹏瑞利内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\prehoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="16560" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -6818,9 +6818,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6875,9 +6875,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
+          <xdr:colOff>695325</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10496,7 +10496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -12581,8 +12581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/工作流/PRL_OISF_写字楼ISF设计.xlsx
+++ b/工作流/PRL_OISF_写字楼ISF设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="0" windowWidth="20010" windowHeight="10950" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="17736" yWindow="0" windowWidth="20016" windowHeight="10956" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,14 @@
     <sheet name="ISF数据结构" sheetId="7" r:id="rId5"/>
     <sheet name="ISTF图例" sheetId="11" r:id="rId6"/>
     <sheet name="ISTF数据结构" sheetId="8" r:id="rId7"/>
-    <sheet name="ISF视图" sheetId="10" r:id="rId8"/>
-    <sheet name="ISF流转说明" sheetId="5" r:id="rId9"/>
+    <sheet name="ISF流转说明" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="501">
   <si>
     <t>标题信息</t>
   </si>
@@ -4350,688 +4349,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>ISF视图</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>select i.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFlowType,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFCreateDate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFStatText,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       i.ISFDepeCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       c.ISCFFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       t.ISTFFStat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from (select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(f.FlowType, '10', 'ISF', '20', 'ISCF', 'MAll') ISFFlowType,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISFFillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.createdate ISFcreatedate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(f.stat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '0',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未开始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '1',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '10',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已提交，审批中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '12',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '13',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已否决</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '30',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '40',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已终止合同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '100',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发起人结束流程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISFStatText,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.stat ISFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         where f.entgid = wf.entgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowgid = wf.flowgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.Entgid = wm.EntGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.ModelGid = wm.ModelGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.stat = 3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat in ('30', '40', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">        union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         where f.Entgid = wm.EntGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.ModelGid = wm.ModelGid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowtype = 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.stat in ('30', '40')) i,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       (select f.entgid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISCFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISCFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISCFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISCFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISCFfillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISCFStat,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               decode(wf.stat,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '2',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '3',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '4',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已停止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '5',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已作废</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>',</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                      '6',</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已超时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>') ISCFFStat,</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.oldflowgid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           and wf.stat &lt; 4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat not in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>', '100')) c,</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.modelgid ISTFModelGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               wm.code ISTFModelCode,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.flowgid ISTFFlowGid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.num ISTFNum,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               f.fillusrname ISTFfillUsrName,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      f.Stat) ISTFStat,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已超时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>') ISTFFStat,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           and f.stat not in ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>', '100')) t</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> where i.entgid = c.entgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.ISFFlowGid = c.oldflowgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.entgid = t.entgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   and i.ISFFlowGid = t.oldflowgid(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> order by i.ISFcreatedate desc;</t>
-  </si>
-  <si>
-    <t>create or replace view v_prl_Oisf as</t>
-  </si>
-  <si>
     <t>FPMFM</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -5357,18 +4674,6 @@
   <si>
     <t>sStep</t>
     <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">               substr(f.FillDeptCode, 0, 4) ISFDepeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_Oisf f, wf_flow wf, wf_model wm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_Oisf f, wf_model wm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_Oistf f, wf_flow wf, wf_model wm</t>
   </si>
   <si>
     <t>FillDeptGid</t>
@@ -5962,14 +5267,6 @@
     <t>90:Deputy CEO
 TC3</t>
     <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          from wf_prl_Oisf f, wf_flow wf, wf_model wm</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           and f.flowtype in (10, 20)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6818,9 +6115,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:colOff>670560</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6869,15 +6166,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7254,23 +6551,23 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="34"/>
-    <col min="2" max="2" width="13.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="34" customWidth="1"/>
     <col min="3" max="3" width="53" style="35" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="34" customWidth="1"/>
     <col min="5" max="5" width="9" style="34"/>
-    <col min="6" max="6" width="12.25" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="36" customWidth="1"/>
     <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>1</v>
       </c>
@@ -7278,7 +6575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
@@ -7286,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
@@ -7294,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
@@ -7302,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
@@ -7310,7 +6607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
@@ -7319,7 +6616,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>10</v>
       </c>
@@ -7336,7 +6633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B12" s="45">
         <v>0.1</v>
       </c>
@@ -7351,7 +6648,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="45">
         <v>0.2</v>
       </c>
@@ -7360,7 +6657,7 @@
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>0.3</v>
       </c>
@@ -7369,7 +6666,7 @@
       <c r="E14" s="47"/>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="45">
         <v>0.4</v>
       </c>
@@ -7378,13 +6675,13 @@
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>17</v>
       </c>
@@ -7392,30 +6689,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="45">
         <v>1</v>
       </c>
       <c r="C19" s="47"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="45">
         <v>2</v>
       </c>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="45">
         <v>3</v>
       </c>
       <c r="C21" s="47"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>17</v>
       </c>
@@ -7423,7 +6720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="45">
         <v>1</v>
       </c>
@@ -7431,7 +6728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="45">
         <v>2</v>
       </c>
@@ -7439,7 +6736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="45">
         <v>3</v>
       </c>
@@ -7447,7 +6744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="45">
         <v>4</v>
       </c>
@@ -7455,7 +6752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="45">
         <v>5</v>
       </c>
@@ -7463,7 +6760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="45">
         <v>6</v>
       </c>
@@ -7471,7 +6768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="45">
         <v>7</v>
       </c>
@@ -7505,90 +6802,90 @@
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="85.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="35"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="103" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="104"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="105"/>
       <c r="C4" s="106"/>
       <c r="F4" s="36"/>
     </row>
-    <row r="5" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
       <c r="C5" s="106"/>
       <c r="F5" s="36"/>
     </row>
-    <row r="6" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="106"/>
       <c r="F6" s="36"/>
     </row>
-    <row r="7" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="106"/>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="2:6" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="107"/>
       <c r="C8" s="108"/>
       <c r="F8" s="36"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="35"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="37">
         <v>1</v>
       </c>
       <c r="C11" s="38"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="37">
         <v>2</v>
       </c>
       <c r="C12" s="38"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="37">
         <v>3</v>
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="37">
         <v>4</v>
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="37">
         <v>5</v>
       </c>
       <c r="C15" s="38"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="37">
         <v>6</v>
       </c>
@@ -7613,22 +6910,22 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="77.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="2" customWidth="1"/>
     <col min="4" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
@@ -7639,7 +6936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -7650,7 +6947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2</v>
       </c>
@@ -7661,7 +6958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>3</v>
       </c>
@@ -7672,7 +6969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>4</v>
       </c>
@@ -7683,7 +6980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>5</v>
       </c>
@@ -7694,7 +6991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>6</v>
       </c>
@@ -7705,7 +7002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>7</v>
       </c>
@@ -7716,29 +7013,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>8</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>9</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>10</v>
       </c>
@@ -7746,21 +7043,21 @@
         <v>48</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>11</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>545</v>
+        <v>444</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>12</v>
       </c>
@@ -7768,10 +7065,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>13</v>
       </c>
@@ -7782,7 +7079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>14</v>
       </c>
@@ -7793,7 +7090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>15</v>
       </c>
@@ -7804,7 +7101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -7815,7 +7112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -7826,7 +7123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -7837,7 +7134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -7848,7 +7145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>20</v>
       </c>
@@ -7859,7 +7156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>21</v>
       </c>
@@ -7870,7 +7167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>22</v>
       </c>
@@ -7881,7 +7178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>23</v>
       </c>
@@ -7892,7 +7189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>24</v>
       </c>
@@ -7903,7 +7200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>25</v>
       </c>
@@ -7911,7 +7208,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="94" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
@@ -7920,7 +7217,7 @@
       <c r="H28" s="109"/>
       <c r="I28" s="109"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>26</v>
       </c>
@@ -7931,18 +7228,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>27</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>546</v>
+        <v>445</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>28</v>
       </c>
@@ -7951,7 +7248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>29</v>
       </c>
@@ -7960,7 +7257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>30</v>
       </c>
@@ -7969,7 +7266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>31</v>
       </c>
@@ -7998,16 +7295,16 @@
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -8015,7 +7312,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
@@ -8029,7 +7326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>86</v>
       </c>
@@ -8043,7 +7340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>90</v>
       </c>
@@ -8055,7 +7352,7 @@
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>92</v>
       </c>
@@ -8069,12 +7366,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>587</v>
+        <v>482</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>94</v>
@@ -8083,12 +7380,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>588</v>
+        <v>483</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>94</v>
@@ -8097,7 +7394,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>100</v>
       </c>
@@ -8111,69 +7408,69 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>595</v>
+        <v>490</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
@@ -8185,7 +7482,7 @@
       </c>
       <c r="D14" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>109</v>
       </c>
@@ -8212,9 +7509,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:colOff>670560</xdr:colOff>
                 <xdr:row>83</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8232,21 +7529,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>405</v>
       </c>
@@ -8258,9 +7555,9 @@
       </c>
       <c r="F1" s="51"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -8268,7 +7565,7 @@
       <c r="E2" s="53"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>135</v>
       </c>
@@ -8283,7 +7580,7 @@
       </c>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>139</v>
       </c>
@@ -8296,7 +7593,7 @@
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>140</v>
       </c>
@@ -8311,7 +7608,7 @@
       </c>
       <c r="F5" s="54"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>142</v>
       </c>
@@ -8326,7 +7623,7 @@
       </c>
       <c r="F6" s="54"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>145</v>
       </c>
@@ -8339,7 +7636,7 @@
       <c r="E7" s="55"/>
       <c r="F7" s="54"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>148</v>
       </c>
@@ -8352,7 +7649,7 @@
       <c r="E8" s="55"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>149</v>
       </c>
@@ -8360,7 +7657,7 @@
       <c r="E9" s="55"/>
       <c r="F9" s="54"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>150</v>
       </c>
@@ -8375,7 +7672,7 @@
       </c>
       <c r="F10" s="58"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="56" t="s">
         <v>149</v>
       </c>
@@ -8383,7 +7680,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>152</v>
       </c>
@@ -8398,7 +7695,7 @@
       </c>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>154</v>
       </c>
@@ -8411,7 +7708,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>156</v>
       </c>
@@ -8424,9 +7721,9 @@
       <c r="E14" s="12"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>551</v>
+        <v>450</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -8439,9 +7736,9 @@
       </c>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>155</v>
@@ -8452,9 +7749,9 @@
       <c r="E16" s="12"/>
       <c r="F16" s="55"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>553</v>
+        <v>452</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>155</v>
@@ -8467,7 +7764,7 @@
       </c>
       <c r="F17" s="55"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="56" t="s">
         <v>149</v>
       </c>
@@ -8475,7 +7772,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>158</v>
       </c>
@@ -8490,7 +7787,7 @@
       </c>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>160</v>
       </c>
@@ -8501,13 +7798,13 @@
         <v>143</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>550</v>
+        <v>449</v>
       </c>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>161</v>
@@ -8520,7 +7817,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>163</v>
       </c>
@@ -8535,7 +7832,7 @@
       </c>
       <c r="F22" s="55"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="59" t="s">
         <v>165</v>
@@ -8551,7 +7848,7 @@
       </c>
       <c r="F23" s="61"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="62" t="s">
         <v>168</v>
@@ -8567,7 +7864,7 @@
       </c>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="12" t="s">
         <v>171</v>
@@ -8583,7 +7880,7 @@
       </c>
       <c r="F25" s="65"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>174</v>
       </c>
@@ -8598,7 +7895,7 @@
       </c>
       <c r="F26" s="55"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>176</v>
       </c>
@@ -8613,7 +7910,7 @@
       </c>
       <c r="F27" s="55"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>179</v>
       </c>
@@ -8628,7 +7925,7 @@
       </c>
       <c r="F28" s="55"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>181</v>
       </c>
@@ -8643,7 +7940,7 @@
       </c>
       <c r="F29" s="55"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>183</v>
       </c>
@@ -8658,7 +7955,7 @@
       </c>
       <c r="F30" s="55"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>186</v>
       </c>
@@ -8673,7 +7970,7 @@
       </c>
       <c r="F31" s="55"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>188</v>
       </c>
@@ -8688,7 +7985,7 @@
       </c>
       <c r="F32" s="55"/>
     </row>
-    <row r="33" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>190</v>
       </c>
@@ -8703,7 +8000,7 @@
       </c>
       <c r="F33" s="55"/>
     </row>
-    <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>192</v>
       </c>
@@ -8718,7 +8015,7 @@
       </c>
       <c r="F34" s="55"/>
     </row>
-    <row r="35" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>194</v>
       </c>
@@ -8733,7 +8030,7 @@
       </c>
       <c r="F35" s="55"/>
     </row>
-    <row r="36" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>196</v>
       </c>
@@ -8748,7 +8045,7 @@
       </c>
       <c r="F36" s="55"/>
     </row>
-    <row r="37" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>198</v>
       </c>
@@ -8763,7 +8060,7 @@
       </c>
       <c r="F37" s="55"/>
     </row>
-    <row r="38" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>200</v>
       </c>
@@ -8778,7 +8075,7 @@
       </c>
       <c r="F38" s="55"/>
     </row>
-    <row r="39" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>202</v>
       </c>
@@ -8793,7 +8090,7 @@
       </c>
       <c r="F39" s="55"/>
     </row>
-    <row r="40" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>203</v>
       </c>
@@ -8808,7 +8105,7 @@
       </c>
       <c r="F40" s="55"/>
     </row>
-    <row r="41" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>428</v>
       </c>
@@ -8823,7 +8120,7 @@
       </c>
       <c r="F41" s="55"/>
     </row>
-    <row r="42" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>205</v>
       </c>
@@ -8838,7 +8135,7 @@
       </c>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>207</v>
       </c>
@@ -8853,7 +8150,7 @@
       </c>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>209</v>
       </c>
@@ -8868,7 +8165,7 @@
       </c>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>211</v>
       </c>
@@ -8883,7 +8180,7 @@
       </c>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>213</v>
       </c>
@@ -8898,7 +8195,7 @@
       </c>
       <c r="F46" s="55"/>
     </row>
-    <row r="47" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>215</v>
       </c>
@@ -8913,7 +8210,7 @@
       </c>
       <c r="F47" s="55"/>
     </row>
-    <row r="48" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>217</v>
       </c>
@@ -8928,7 +8225,7 @@
       </c>
       <c r="F48" s="55"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>219</v>
       </c>
@@ -8943,7 +8240,7 @@
       </c>
       <c r="F49" s="55"/>
     </row>
-    <row r="50" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>221</v>
       </c>
@@ -8958,7 +8255,7 @@
       </c>
       <c r="F50" s="55"/>
     </row>
-    <row r="51" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>431</v>
       </c>
@@ -8973,7 +8270,7 @@
       </c>
       <c r="F51" s="55"/>
     </row>
-    <row r="52" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>223</v>
       </c>
@@ -8988,7 +8285,7 @@
       </c>
       <c r="F52" s="55"/>
     </row>
-    <row r="53" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>225</v>
       </c>
@@ -9001,7 +8298,7 @@
       <c r="E53" s="54"/>
       <c r="F53" s="55"/>
     </row>
-    <row r="54" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>226</v>
       </c>
@@ -9016,7 +8313,7 @@
       </c>
       <c r="F54" s="55"/>
     </row>
-    <row r="55" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>228</v>
       </c>
@@ -9029,7 +8326,7 @@
       <c r="E55" s="54"/>
       <c r="F55" s="55"/>
     </row>
-    <row r="56" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>229</v>
       </c>
@@ -9044,7 +8341,7 @@
       </c>
       <c r="F56" s="55"/>
     </row>
-    <row r="57" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>231</v>
       </c>
@@ -9057,7 +8354,7 @@
       <c r="E57" s="54"/>
       <c r="F57" s="55"/>
     </row>
-    <row r="58" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>232</v>
       </c>
@@ -9072,7 +8369,7 @@
       </c>
       <c r="F58" s="55"/>
     </row>
-    <row r="59" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>234</v>
       </c>
@@ -9087,7 +8384,7 @@
       </c>
       <c r="F59" s="55"/>
     </row>
-    <row r="60" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>236</v>
       </c>
@@ -9102,7 +8399,7 @@
       </c>
       <c r="F60" s="55"/>
     </row>
-    <row r="61" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>238</v>
       </c>
@@ -9119,7 +8416,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>241</v>
       </c>
@@ -9134,7 +8431,7 @@
       </c>
       <c r="F62" s="55"/>
     </row>
-    <row r="63" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>243</v>
       </c>
@@ -9151,7 +8448,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>246</v>
       </c>
@@ -9166,7 +8463,7 @@
       </c>
       <c r="F64" s="55"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>248</v>
       </c>
@@ -9181,7 +8478,7 @@
       </c>
       <c r="F65" s="55"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
       <c r="B66" s="12" t="s">
         <v>250</v>
@@ -9197,7 +8494,7 @@
       </c>
       <c r="F66" s="68"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="66"/>
       <c r="B67" s="12" t="s">
         <v>252</v>
@@ -9213,7 +8510,7 @@
       </c>
       <c r="F67" s="68"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="66"/>
       <c r="B68" s="12" t="s">
         <v>254</v>
@@ -9229,7 +8526,7 @@
       </c>
       <c r="F68" s="68"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="66"/>
       <c r="B69" s="12" t="s">
         <v>256</v>
@@ -9245,7 +8542,7 @@
       </c>
       <c r="F69" s="68"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="66"/>
       <c r="B70" s="12" t="s">
         <v>259</v>
@@ -9261,7 +8558,7 @@
       </c>
       <c r="F70" s="68"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>261</v>
       </c>
@@ -9276,7 +8573,7 @@
       </c>
       <c r="F71" s="55"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>263</v>
       </c>
@@ -9293,7 +8590,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="56" t="s">
         <v>265</v>
       </c>
@@ -9301,7 +8598,7 @@
       <c r="E73" s="54"/>
       <c r="F73" s="55"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>266</v>
       </c>
@@ -9316,7 +8613,7 @@
       </c>
       <c r="F74" s="55"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>268</v>
       </c>
@@ -9331,7 +8628,7 @@
       </c>
       <c r="F75" s="55"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>270</v>
       </c>
@@ -9346,7 +8643,7 @@
       </c>
       <c r="F76" s="55"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>272</v>
       </c>
@@ -9361,7 +8658,7 @@
       </c>
       <c r="F77" s="55"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>274</v>
       </c>
@@ -9376,7 +8673,7 @@
       </c>
       <c r="F78" s="55"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>277</v>
       </c>
@@ -9391,7 +8688,7 @@
       </c>
       <c r="F79" s="55"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>278</v>
       </c>
@@ -9406,7 +8703,7 @@
       </c>
       <c r="F80" s="55"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>280</v>
       </c>
@@ -9421,9 +8718,9 @@
       </c>
       <c r="F81" s="55"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>558</v>
+        <v>457</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>257</v>
@@ -9436,7 +8733,7 @@
       </c>
       <c r="F82" s="55"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="69" t="s">
         <v>283</v>
@@ -9446,7 +8743,7 @@
       <c r="E83" s="67"/>
       <c r="F83" s="68"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="70"/>
       <c r="B84" s="70" t="s">
         <v>284</v>
@@ -9464,7 +8761,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="70"/>
       <c r="B85" s="70" t="s">
         <v>288</v>
@@ -9480,7 +8777,7 @@
       </c>
       <c r="F85" s="70"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
       <c r="B86" s="72" t="s">
         <v>290</v>
@@ -9496,7 +8793,7 @@
       </c>
       <c r="F86" s="72"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="72"/>
       <c r="B87" s="72" t="s">
         <v>292</v>
@@ -9512,7 +8809,7 @@
       </c>
       <c r="F87" s="72"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="74"/>
       <c r="B88" s="75" t="s">
         <v>294</v>
@@ -9522,7 +8819,7 @@
       <c r="E88" s="74"/>
       <c r="F88" s="74"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="76"/>
       <c r="B89" s="76" t="s">
         <v>295</v>
@@ -9540,7 +8837,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="76"/>
       <c r="B90" s="76" t="s">
         <v>298</v>
@@ -9556,7 +8853,7 @@
       </c>
       <c r="F90" s="78"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B91" s="56" t="s">
         <v>149</v>
       </c>
@@ -9564,7 +8861,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="55"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>317</v>
       </c>
@@ -9579,7 +8876,7 @@
       </c>
       <c r="F92" s="55"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>406</v>
       </c>
@@ -9587,7 +8884,7 @@
       <c r="E93" s="12"/>
       <c r="F93" s="55"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="79"/>
       <c r="B94" s="80" t="s">
         <v>407</v>
@@ -9597,7 +8894,7 @@
       <c r="E94" s="82"/>
       <c r="F94" s="79"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>300</v>
       </c>
@@ -9605,7 +8902,7 @@
       <c r="E95" s="12"/>
       <c r="F95" s="55"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>408</v>
       </c>
@@ -9613,7 +8910,7 @@
       <c r="E96" s="12"/>
       <c r="F96" s="55"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="66"/>
       <c r="C97" s="66"/>
@@ -9621,7 +8918,7 @@
       <c r="E97" s="66"/>
       <c r="F97" s="68"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="51" t="s">
         <v>409</v>
       </c>
@@ -9633,7 +8930,7 @@
       </c>
       <c r="F98" s="51"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="51" t="s">
         <v>410</v>
       </c>
@@ -9643,7 +8940,7 @@
       <c r="E99" s="53"/>
       <c r="F99" s="51"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>135</v>
       </c>
@@ -9658,7 +8955,7 @@
       </c>
       <c r="F100" s="55"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>139</v>
       </c>
@@ -9671,7 +8968,7 @@
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>140</v>
       </c>
@@ -9686,7 +8983,7 @@
       </c>
       <c r="F102" s="55"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>304</v>
       </c>
@@ -9701,7 +8998,7 @@
       </c>
       <c r="F103" s="55"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B104" s="56" t="s">
         <v>149</v>
       </c>
@@ -9709,7 +9006,7 @@
       <c r="E104" s="12"/>
       <c r="F104" s="55"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>305</v>
       </c>
@@ -9724,9 +9021,9 @@
       </c>
       <c r="F105" s="84"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>285</v>
@@ -9738,7 +9035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>308</v>
       </c>
@@ -9755,7 +9052,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>311</v>
       </c>
@@ -9769,7 +9066,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B109" s="56" t="s">
         <v>149</v>
       </c>
@@ -9777,7 +9074,7 @@
       <c r="E109" s="12"/>
       <c r="F109" s="55"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>313</v>
       </c>
@@ -9792,9 +9089,9 @@
       </c>
       <c r="F110" s="55"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>169</v>
@@ -9803,13 +9100,13 @@
         <v>143</v>
       </c>
       <c r="E111" s="54" t="s">
-        <v>538</v>
+        <v>437</v>
       </c>
       <c r="F111" s="55"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>169</v>
@@ -9818,13 +9115,13 @@
         <v>143</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>539</v>
+        <v>438</v>
       </c>
       <c r="F112" s="85"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>169</v>
@@ -9833,11 +9130,11 @@
         <v>143</v>
       </c>
       <c r="E113" s="54" t="s">
-        <v>540</v>
+        <v>439</v>
       </c>
       <c r="F113" s="85"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>301</v>
       </c>
@@ -9852,7 +9149,7 @@
       </c>
       <c r="F114" s="85"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>302</v>
       </c>
@@ -9867,9 +9164,9 @@
       </c>
       <c r="F115" s="85"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>537</v>
+        <v>436</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>169</v>
@@ -9882,9 +9179,9 @@
       </c>
       <c r="F116" s="85"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>536</v>
+        <v>435</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>169</v>
@@ -9897,7 +9194,7 @@
       </c>
       <c r="F117" s="85"/>
     </row>
-    <row r="118" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>411</v>
       </c>
@@ -9905,7 +9202,7 @@
       <c r="E118" s="12"/>
       <c r="F118" s="55"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>300</v>
       </c>
@@ -9913,7 +9210,7 @@
       <c r="E119" s="12"/>
       <c r="F119" s="55"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="66"/>
       <c r="B120" s="66"/>
       <c r="C120" s="66"/>
@@ -9921,7 +9218,7 @@
       <c r="E120" s="66"/>
       <c r="F120" s="68"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="51" t="s">
         <v>412</v>
       </c>
@@ -9933,7 +9230,7 @@
       </c>
       <c r="F121" s="51"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="51" t="s">
         <v>413</v>
       </c>
@@ -9943,7 +9240,7 @@
       <c r="E122" s="51"/>
       <c r="F122" s="51"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="51"/>
       <c r="B123" s="51" t="s">
         <v>135</v>
@@ -9959,7 +9256,7 @@
       </c>
       <c r="F123" s="55"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>139</v>
       </c>
@@ -9972,7 +9269,7 @@
       <c r="E124" s="54"/>
       <c r="F124" s="54"/>
     </row>
-    <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="51"/>
       <c r="B125" s="51" t="s">
         <v>140</v>
@@ -9988,7 +9285,7 @@
       </c>
       <c r="F125" s="55"/>
     </row>
-    <row r="126" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>304</v>
       </c>
@@ -10003,7 +9300,7 @@
       </c>
       <c r="F126" s="55"/>
     </row>
-    <row r="127" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>322</v>
       </c>
@@ -10018,7 +9315,7 @@
       </c>
       <c r="F127" s="55"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>324</v>
       </c>
@@ -10033,7 +9330,7 @@
       </c>
       <c r="F128" s="54"/>
     </row>
-    <row r="129" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>326</v>
       </c>
@@ -10048,7 +9345,7 @@
       </c>
       <c r="F129" s="55"/>
     </row>
-    <row r="130" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B130" s="65" t="s">
         <v>328</v>
       </c>
@@ -10063,7 +9360,7 @@
       </c>
       <c r="F130" s="55"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>329</v>
       </c>
@@ -10078,7 +9375,7 @@
       </c>
       <c r="F131" s="55"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="51"/>
       <c r="B132" s="51" t="s">
         <v>414</v>
@@ -10088,7 +9385,7 @@
       <c r="E132" s="51"/>
       <c r="F132" s="51"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="51"/>
       <c r="B133" s="51" t="s">
         <v>300</v>
@@ -10098,7 +9395,7 @@
       <c r="E133" s="51"/>
       <c r="F133" s="51"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="51" t="s">
         <v>415</v>
       </c>
@@ -10110,7 +9407,7 @@
       </c>
       <c r="F135" s="51"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="51" t="s">
         <v>416</v>
       </c>
@@ -10120,7 +9417,7 @@
       <c r="E136" s="53"/>
       <c r="F136" s="51"/>
     </row>
-    <row r="137" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>135</v>
       </c>
@@ -10135,7 +9432,7 @@
       </c>
       <c r="F137" s="55"/>
     </row>
-    <row r="138" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>140</v>
       </c>
@@ -10150,7 +9447,7 @@
       </c>
       <c r="F138" s="55"/>
     </row>
-    <row r="139" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>332</v>
       </c>
@@ -10163,7 +9460,7 @@
       <c r="E139" s="54"/>
       <c r="F139" s="55"/>
     </row>
-    <row r="140" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B140" s="56" t="s">
         <v>149</v>
       </c>
@@ -10171,7 +9468,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="55"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
         <v>333</v>
       </c>
@@ -10188,7 +9485,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B142" s="56" t="s">
         <v>149</v>
       </c>
@@ -10196,7 +9493,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="55"/>
     </row>
-    <row r="143" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>336</v>
       </c>
@@ -10213,7 +9510,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
         <v>339</v>
       </c>
@@ -10228,7 +9525,7 @@
       </c>
       <c r="F144" s="55"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>341</v>
       </c>
@@ -10241,7 +9538,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="55"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
         <v>342</v>
       </c>
@@ -10254,7 +9551,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="55"/>
     </row>
-    <row r="147" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B147" s="12" t="s">
         <v>343</v>
       </c>
@@ -10267,7 +9564,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="55"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
         <v>344</v>
       </c>
@@ -10282,7 +9579,7 @@
       </c>
       <c r="F148" s="55"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B149" s="56" t="s">
         <v>149</v>
       </c>
@@ -10290,7 +9587,7 @@
       <c r="E149" s="12"/>
       <c r="F149" s="55"/>
     </row>
-    <row r="150" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
         <v>346</v>
       </c>
@@ -10305,7 +9602,7 @@
       </c>
       <c r="F150" s="55"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
         <v>348</v>
       </c>
@@ -10320,7 +9617,7 @@
       </c>
       <c r="F151" s="55"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
         <v>417</v>
       </c>
@@ -10328,7 +9625,7 @@
       <c r="E152" s="12"/>
       <c r="F152" s="55"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
         <v>300</v>
       </c>
@@ -10336,7 +9633,7 @@
       <c r="E153" s="12"/>
       <c r="F153" s="55"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="51" t="s">
         <v>418</v>
       </c>
@@ -10348,7 +9645,7 @@
       </c>
       <c r="F155" s="51"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="51" t="s">
         <v>419</v>
       </c>
@@ -10358,7 +9655,7 @@
       <c r="E156" s="53"/>
       <c r="F156" s="51"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B157" s="12" t="s">
         <v>135</v>
       </c>
@@ -10373,7 +9670,7 @@
       </c>
       <c r="F157" s="55"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
         <v>139</v>
       </c>
@@ -10386,7 +9683,7 @@
       <c r="E158" s="54"/>
       <c r="F158" s="54"/>
     </row>
-    <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
         <v>140</v>
       </c>
@@ -10401,7 +9698,7 @@
       </c>
       <c r="F159" s="55"/>
     </row>
-    <row r="160" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B160" s="12" t="s">
         <v>351</v>
       </c>
@@ -10416,7 +9713,7 @@
       </c>
       <c r="F160" s="55"/>
     </row>
-    <row r="161" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B161" s="12" t="s">
         <v>149</v>
       </c>
@@ -10424,7 +9721,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="55"/>
     </row>
-    <row r="162" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
         <v>353</v>
       </c>
@@ -10439,7 +9736,7 @@
       </c>
       <c r="F162" s="55"/>
     </row>
-    <row r="163" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B163" s="12" t="s">
         <v>356</v>
       </c>
@@ -10454,7 +9751,7 @@
       </c>
       <c r="F163" s="55"/>
     </row>
-    <row r="164" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
         <v>358</v>
       </c>
@@ -10469,7 +9766,7 @@
       </c>
       <c r="F164" s="55"/>
     </row>
-    <row r="165" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B165" s="12" t="s">
         <v>420</v>
       </c>
@@ -10477,7 +9774,7 @@
       <c r="E165" s="12"/>
       <c r="F165" s="55"/>
     </row>
-    <row r="166" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B166" s="12" t="s">
         <v>300</v>
       </c>
@@ -10500,16 +9797,16 @@
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -10517,7 +9814,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
@@ -10531,7 +9828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>86</v>
       </c>
@@ -10545,7 +9842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>90</v>
       </c>
@@ -10557,7 +9854,7 @@
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>92</v>
       </c>
@@ -10571,12 +9868,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>94</v>
@@ -10585,12 +9882,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>597</v>
+        <v>492</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>94</v>
@@ -10599,7 +9896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>100</v>
       </c>
@@ -10613,69 +9910,69 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>598</v>
+        <v>493</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>601</v>
+        <v>496</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>602</v>
+        <v>497</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>603</v>
+        <v>498</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
@@ -10687,7 +9984,7 @@
       </c>
       <c r="D14" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>109</v>
       </c>
@@ -10707,15 +10004,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>30480</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10737,17 +10034,17 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>421</v>
       </c>
@@ -10759,9 +10056,9 @@
       </c>
       <c r="F1" s="51"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -10769,7 +10066,7 @@
       <c r="E2" s="53"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>135</v>
       </c>
@@ -10784,7 +10081,7 @@
       </c>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>139</v>
       </c>
@@ -10797,7 +10094,7 @@
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>140</v>
       </c>
@@ -10812,7 +10109,7 @@
       </c>
       <c r="F5" s="54"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>142</v>
       </c>
@@ -10827,7 +10124,7 @@
       </c>
       <c r="F6" s="54"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>145</v>
       </c>
@@ -10839,7 +10136,7 @@
       </c>
       <c r="F7" s="54"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>148</v>
       </c>
@@ -10851,13 +10148,13 @@
       </c>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>149</v>
       </c>
       <c r="F9" s="54"/>
     </row>
-    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>150</v>
       </c>
@@ -10874,12 +10171,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>152</v>
       </c>
@@ -10893,7 +10190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>154</v>
       </c>
@@ -10904,7 +10201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>156</v>
       </c>
@@ -10915,9 +10212,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>563</v>
+        <v>458</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -10929,9 +10226,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>564</v>
+        <v>459</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>155</v>
@@ -10940,9 +10237,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>155</v>
@@ -10954,12 +10251,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>298</v>
       </c>
@@ -10974,7 +10271,7 @@
       </c>
       <c r="F19" s="54"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="65" t="s">
         <v>363</v>
@@ -10992,7 +10289,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
         <v>365</v>
@@ -11008,7 +10305,7 @@
       </c>
       <c r="F21" s="65"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="65" t="s">
         <v>366</v>
@@ -11024,7 +10321,7 @@
       </c>
       <c r="F22" s="65"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="65" t="s">
         <v>368</v>
@@ -11040,7 +10337,7 @@
       </c>
       <c r="F23" s="65"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="65" t="s">
         <v>370</v>
@@ -11054,7 +10351,7 @@
       <c r="E24" s="86"/>
       <c r="F24" s="65"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="65" t="s">
         <v>371</v>
@@ -11070,12 +10367,12 @@
       </c>
       <c r="F25" s="65"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>373</v>
       </c>
@@ -11089,7 +10386,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>376</v>
       </c>
@@ -11103,7 +10400,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>378</v>
       </c>
@@ -11117,7 +10414,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>380</v>
       </c>
@@ -11131,7 +10428,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>382</v>
       </c>
@@ -11145,12 +10442,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>384</v>
       </c>
@@ -11161,7 +10458,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>385</v>
       </c>
@@ -11172,7 +10469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>386</v>
       </c>
@@ -11183,7 +10480,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>387</v>
       </c>
@@ -11194,7 +10491,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>388</v>
       </c>
@@ -11205,7 +10502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>389</v>
       </c>
@@ -11216,7 +10513,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>390</v>
       </c>
@@ -11227,7 +10524,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>391</v>
       </c>
@@ -11238,7 +10535,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="B41" s="69" t="s">
         <v>283</v>
@@ -11248,7 +10545,7 @@
       <c r="E41" s="67"/>
       <c r="F41" s="68"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
       <c r="B42" s="70" t="s">
         <v>284</v>
@@ -11266,7 +10563,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
       <c r="B43" s="70" t="s">
         <v>288</v>
@@ -11282,7 +10579,7 @@
       </c>
       <c r="F43" s="70"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
       <c r="B44" s="72" t="s">
         <v>290</v>
@@ -11298,7 +10595,7 @@
       </c>
       <c r="F44" s="72"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
       <c r="B45" s="72" t="s">
         <v>292</v>
@@ -11314,7 +10611,7 @@
       </c>
       <c r="F45" s="72"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="56" t="s">
         <v>149</v>
       </c>
@@ -11322,7 +10619,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="55"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>317</v>
       </c>
@@ -11337,12 +10634,12 @@
       </c>
       <c r="F47" s="55"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
       <c r="B49" s="80" t="s">
         <v>423</v>
@@ -11352,17 +10649,17 @@
       <c r="E49" s="82"/>
       <c r="F49" s="79"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
         <v>425</v>
       </c>
@@ -11374,7 +10671,7 @@
       </c>
       <c r="F53" s="51"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
         <v>426</v>
       </c>
@@ -11384,7 +10681,7 @@
       <c r="E54" s="53"/>
       <c r="F54" s="51"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>135</v>
       </c>
@@ -11398,7 +10695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>139</v>
       </c>
@@ -11411,7 +10708,7 @@
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>140</v>
       </c>
@@ -11425,7 +10722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>304</v>
       </c>
@@ -11439,12 +10736,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="108" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="108" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>393</v>
       </c>
@@ -11461,7 +10758,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>396</v>
       </c>
@@ -11476,7 +10773,7 @@
       </c>
       <c r="F61" s="58"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>398</v>
       </c>
@@ -11490,7 +10787,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>399</v>
       </c>
@@ -11504,7 +10801,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>400</v>
       </c>
@@ -11518,7 +10815,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>401</v>
       </c>
@@ -11532,7 +10829,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>402</v>
       </c>
@@ -11546,7 +10843,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>261</v>
       </c>
@@ -11561,12 +10858,12 @@
       </c>
       <c r="F67" s="85"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>300</v>
       </c>
@@ -11579,1024 +10876,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A196"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.25" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="98" customWidth="1"/>
-    <col min="8" max="9" width="14.125" style="99" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="98" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -12610,11 +10907,11 @@
         <v>110</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>567</v>
+        <v>462</v>
       </c>
       <c r="I1" s="117"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>112</v>
       </c>
@@ -12634,13 +10931,13 @@
         <v>112</v>
       </c>
       <c r="H2" s="100" t="s">
-        <v>568</v>
+        <v>463</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
@@ -12657,19 +10954,19 @@
         <v>118</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>570</v>
+        <v>465</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>578</v>
+        <v>473</v>
       </c>
       <c r="C4" s="114"/>
       <c r="D4" s="114"/>
@@ -12678,11 +10975,11 @@
         <v>121</v>
       </c>
       <c r="H4" s="111" t="s">
-        <v>577</v>
+        <v>472</v>
       </c>
       <c r="I4" s="112"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>128</v>
       </c>
@@ -12690,23 +10987,23 @@
         <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>573</v>
+        <v>468</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>574</v>
+        <v>469</v>
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -12714,23 +11011,23 @@
         <v>122</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>575</v>
+        <v>470</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>123</v>
@@ -12738,17 +11035,17 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="102" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>130</v>
       </c>
@@ -12757,19 +11054,19 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="G8" s="6" t="s">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -12779,7 +11076,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
         <v>124</v>
       </c>
@@ -12799,13 +11096,13 @@
         <v>124</v>
       </c>
       <c r="H11" s="96" t="s">
-        <v>568</v>
+        <v>463</v>
       </c>
       <c r="I11" s="96" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>127</v>
       </c>
@@ -12822,19 +11119,19 @@
         <v>118</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>570</v>
+        <v>465</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="113" t="s">
-        <v>578</v>
+        <v>473</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="114"/>
@@ -12843,11 +11140,11 @@
         <v>121</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="I13" s="112"/>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>128</v>
       </c>
@@ -12855,23 +11152,23 @@
         <v>126</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>573</v>
+        <v>468</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>574</v>
+        <v>469</v>
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>129</v>
       </c>
@@ -12879,23 +11176,23 @@
         <v>122</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>575</v>
+        <v>470</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>123</v>
@@ -12903,17 +11200,17 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="102" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>130</v>
       </c>
@@ -12922,7 +11219,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="G17" s="6" t="s">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
